--- a/Chapter 5/Data preprocessing/Existing dataset movies/ML-MT-BothRatings.xlsx
+++ b/Chapter 5/Data preprocessing/Existing dataset movies/ML-MT-BothRatings.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="986">
   <si>
     <t>ML-AC-Rats</t>
   </si>
@@ -2970,9 +2970,6 @@
   </si>
   <si>
     <t>MovieLens and MovieTweetings ID in same row represent same movie</t>
-  </si>
-  <si>
-    <t>This file do not contain ratings provided by each user. Ratings can be retrieved from dataset (link given above)</t>
   </si>
   <si>
     <r>
@@ -3709,32 +3706,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3763,8 +3736,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4111,7 +4108,7 @@
   <dimension ref="A1:K778"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4172,11 +4169,11 @@
         <f>LOG(F2)</f>
         <v>2.7531999141994161</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="27" t="s">
         <v>984</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -4202,9 +4199,9 @@
         <f t="shared" ref="G3:G66" si="1">LOG(F3)</f>
         <v>2.3710678622717363</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -4230,9 +4227,9 @@
         <f t="shared" si="1"/>
         <v>3.1174370252826193</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
@@ -4258,9 +4255,9 @@
         <f t="shared" si="1"/>
         <v>2.6309361190641916</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -4286,11 +4283,11 @@
         <f t="shared" si="1"/>
         <v>2.7895807121644256</v>
       </c>
-      <c r="I6" s="26" t="s">
-        <v>986</v>
-      </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
+      <c r="I6" s="18" t="s">
+        <v>985</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -4316,9 +4313,9 @@
         <f t="shared" si="1"/>
         <v>3.6353832040474985</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -4344,9 +4341,9 @@
         <f t="shared" si="1"/>
         <v>2.9663764230889229</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -4372,9 +4369,9 @@
         <f t="shared" si="1"/>
         <v>2.1222158782728267</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -4400,9 +4397,9 @@
         <f t="shared" si="1"/>
         <v>3.0490240979150491</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -4428,9 +4425,9 @@
         <f t="shared" si="1"/>
         <v>3.2804645466269182</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -4456,9 +4453,9 @@
         <f t="shared" si="1"/>
         <v>2.9132839017604186</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
@@ -4484,9 +4481,9 @@
         <f t="shared" si="1"/>
         <v>2.6079908585471747</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
@@ -4537,11 +4534,9 @@
         <f t="shared" si="1"/>
         <v>3.0696680969115957</v>
       </c>
-      <c r="I15" s="26" t="s">
-        <v>985</v>
-      </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="28"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -4567,9 +4562,9 @@
         <f t="shared" si="1"/>
         <v>1.3617278360175928</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -4595,9 +4590,9 @@
         <f t="shared" si="1"/>
         <v>3.0757293997408985</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
@@ -4623,9 +4618,9 @@
         <f t="shared" si="1"/>
         <v>2.1818435879447726</v>
       </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
